--- a/analysis/2024_카테고리별_판매량.xlsx
+++ b/analysis/2024_카테고리별_판매량.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>공급가액</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>년도</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,9 @@
       <c r="B2" t="n">
         <v>3499934000</v>
       </c>
+      <c r="C2" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +472,9 @@
       <c r="B3" t="n">
         <v>675125000</v>
       </c>
+      <c r="C3" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +485,9 @@
       <c r="B4" t="n">
         <v>365680000</v>
       </c>
+      <c r="C4" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +498,9 @@
       <c r="B5" t="n">
         <v>326012000</v>
       </c>
+      <c r="C5" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -493,6 +510,9 @@
       </c>
       <c r="B6" t="n">
         <v>134316000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
